--- a/lupack-charlemange-export-corrections-log.xlsx
+++ b/lupack-charlemange-export-corrections-log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdelcour.UR\Box\METS\Backlist\Lupack-Charlemagne\Lupack-Charlemagne-Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB4675A-35B0-4959-9D4A-C592057CECF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00D1198-5960-4C01-9070-ACB951F243E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3C0C038-97D1-4D1B-9C1B-A56CF7B174D0}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{B3C0C038-97D1-4D1B-9C1B-A56CF7B174D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="152">
   <si>
     <t>Date</t>
   </si>
@@ -216,14 +216,318 @@
   </si>
   <si>
     <t>Content update: transcribed headnote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These corrections were previously entered when the print edition was originally posted online, and before the edition was updated into TEI-XML format. </t>
+  </si>
+  <si>
+    <t>line 2</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'wide' to 'wyde'</t>
+  </si>
+  <si>
+    <t>line 4</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'tide' to tyde'</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'tyme' to 'time'</t>
+  </si>
+  <si>
+    <t>line 48</t>
+  </si>
+  <si>
+    <t>line 53</t>
+  </si>
+  <si>
+    <t>line 55</t>
+  </si>
+  <si>
+    <t>Content correction: changed "Forsouth" to "Forsuith"</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'house' to 'hous'</t>
+  </si>
+  <si>
+    <t>line 68</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'mote' to 'mot'</t>
+  </si>
+  <si>
+    <t>line 77</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'hert' to 'hart'</t>
+  </si>
+  <si>
+    <t>line 82</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'behufe' to 'behuse'</t>
+  </si>
+  <si>
+    <t>line 138</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'I was' to 'was I'</t>
+  </si>
+  <si>
+    <t>line 144</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'withowtin' to 'withouten'</t>
+  </si>
+  <si>
+    <t>line 157</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'by' to 'be'</t>
+  </si>
+  <si>
+    <t>line 171</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'Christin' to 'Cristin'</t>
+  </si>
+  <si>
+    <t>line 177</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'Down' to 'Doun'</t>
+  </si>
+  <si>
+    <t>line 190</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'worthy' to 'worthie'</t>
+  </si>
+  <si>
+    <t>line 210</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'fusoun' to 'fusioun'</t>
+  </si>
+  <si>
+    <t>line 214</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'resoun' to 'ressoun'</t>
+  </si>
+  <si>
+    <t>line 215</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'They' to 'Thay'</t>
+  </si>
+  <si>
+    <t>line 217</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'Coilyear' to 'Coilyeir'</t>
+  </si>
+  <si>
+    <t>line 220</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'they' to 'thay'</t>
+  </si>
+  <si>
+    <t>line 243</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'sake' to 'saik'</t>
+  </si>
+  <si>
+    <t>line 259</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'red' to 'rid'</t>
+  </si>
+  <si>
+    <t>line 284</t>
+  </si>
+  <si>
+    <t>line 319</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'Then' to 'Than'</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'kneillit' to 'kneilit'</t>
+  </si>
+  <si>
+    <t>line 337</t>
+  </si>
+  <si>
+    <t>line 358</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'pleasance' to 'plesaunce'</t>
+  </si>
+  <si>
+    <t>line 435</t>
+  </si>
+  <si>
+    <t>line 437</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'has' to 'hes'</t>
+  </si>
+  <si>
+    <t>line 463</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'stanes' to 'stanis'</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'cleir' to 'deir'</t>
+  </si>
+  <si>
+    <t>line 489</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'undertuk' to 'undertak'</t>
+  </si>
+  <si>
+    <t>line 497</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'preisit' to 'preifit'</t>
+  </si>
+  <si>
+    <t>line 540</t>
+  </si>
+  <si>
+    <t>Content correction: deleted 'out'</t>
+  </si>
+  <si>
+    <t>line 558</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'scorn' to 'scorne'</t>
+  </si>
+  <si>
+    <t>line 604</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'witten' to 'wittin'</t>
+  </si>
+  <si>
+    <t>line 619</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'the' to 'that'</t>
+  </si>
+  <si>
+    <t>line 642</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'haiket' to 'haikit'</t>
+  </si>
+  <si>
+    <t>line 650</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'send' to 'fend'</t>
+  </si>
+  <si>
+    <t>Content correction: added gloss 'keep out'</t>
+  </si>
+  <si>
+    <t>line 655</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'reward' to 'rewaird'</t>
+  </si>
+  <si>
+    <t>line 740</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'judgeit' to 'ludgeit'</t>
+  </si>
+  <si>
+    <t>line 797</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'brent' to 'bent'</t>
+  </si>
+  <si>
+    <t>line 810</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'seimit' to 'semit'</t>
+  </si>
+  <si>
+    <t>line 872</t>
+  </si>
+  <si>
+    <t>line 886</t>
+  </si>
+  <si>
+    <r>
+      <t>Content correction: changed 'the</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' to 'that'</t>
+    </r>
+  </si>
+  <si>
+    <t>line 890</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'Christen' to 'Cristen'</t>
+  </si>
+  <si>
+    <t>line 927</t>
+  </si>
+  <si>
+    <t>Content correction: changed 'claimis' to 'clamis'</t>
+  </si>
+  <si>
+    <t>line 944</t>
+  </si>
+  <si>
+    <t>Added textual note attached to 'Bot'</t>
+  </si>
+  <si>
+    <t>note to 605</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -278,10 +582,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7007DD99-84EC-4650-840D-6961C292F971}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{7007DD99-84EC-4650-840D-6961C292F971}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E20">
-    <sortCondition ref="A1:A26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7007DD99-84EC-4650-840D-6961C292F971}" name="Table1" displayName="Table1" ref="A1:E68" totalsRowShown="0">
+  <autoFilter ref="A1:E68" xr:uid="{7007DD99-84EC-4650-840D-6961C292F971}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{17DF0D05-8799-46EB-9431-3F5BD42CA2C9}" name="Document"/>
@@ -591,11 +895,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF06FA7E-87DC-48B4-BE57-B07EB342D59E}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +907,7 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -790,150 +1094,822 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D59" t="s">
         <v>5</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E59" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B60" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D60" t="s">
         <v>5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E60" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B61" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D61" t="s">
         <v>5</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E61" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B62" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D62" t="s">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B63" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D63" t="s">
         <v>5</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E63" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>45</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B64" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D64" t="s">
         <v>5</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E64" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>44</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B65" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D65" t="s">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E65" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D67" t="s">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D68" t="s">
         <v>5</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E68" t="s">
         <v>33</v>
       </c>
     </row>
